--- a/recommendation.xlsx
+++ b/recommendation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Beauty project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Beauty project\face_problems_analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>profit_link</t>
   </si>
@@ -162,6 +162,150 @@
   </si>
   <si>
     <t>https://honasa-mamaearth-production.imgix.net/o/i/oil-free-face-wash_1.jpg?auto=format&amp;fit=crop&amp;w=768&amp;auto=compress</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16828917</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/youth-eternity-under-eye-cream_026aea46-8f72-4951-8095-f96f98826970.jpg?v=1622098616</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16828935</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/under-eye-cream.jpg?v=1622098730</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829580</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/clarina-anti-acne-face-wash-gel_1024x1024.jpg?v=1622098637</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829589</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/clarina-anti-acne-cream_1024x1024.jpg?v=1622097207</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829598</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/Neem_1024x1024.jpg?v=1622099585</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829624</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/anti-wrinkle-cream_f9d4812e-f2bd-4342-b240-35d4edb3f860_1024x1024.jpg?v=1622096691</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829630</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/youth-eternity-day-cream-50ml_1024x1024.jpg?v=1622098612</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829634</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829646</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/GENTLE-EXFOLIATING-APRICOT-FS-50G_1024x1024.jpg?v=1663758270</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829660</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/moisturizing-aloe-vera-face-wash-200ml_1024x1024.jpg?v=1622100689</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829687</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/CCBDC_1024x1024.jpg?v=1655188098</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829724</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829742</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829760</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829767</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/honey-cream-soap-125g.jpg?v=1622100346</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/fresh-start-lemon-face-wash_a7ce0fdb-bd07-49a3-aa1b-5c15058c3473_1024x1024.jpg?v=1639029048</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829780</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829786</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/fresh-start-blueberry-face-wash_1024x1024.jpg?v=1622095911</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829792</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829800</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/Natural-glow-rose-face-wash_1024x1024.jpg?v=1659499934</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829804</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/rich-cocoa-butter-body-cream.jpg?v=1622097540</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829814</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/Talekt_-_2000x2000_b96b0a2c-72a7-427b-b6cd-71b0b8e81eb8_1024x1024.jpg?v=1622097510</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/talekt-syrup120_1024x1024.jpg?v=1622100985</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829825</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/tan-removal-orange-face-scrub_704fc9db-4846-4a87-b6f6-36f0dcc853a3_1024x1024.jpg?v=1627445269</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829849</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829864</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/deep-cleansing-apricot-face-wash-50ml_1024x1024.jpg?v=1639027564</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829869</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829877</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/CLEAR-COMPL.-BRIGHT.-MULETHI-FS-50G_1024x1024.jpg?v=1663758325</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0272/4714/9155/products/Skin-protect-Shaving-gel-Neem-_-Cooling-mint_1024x1024.jpg?v=1655188102</t>
+  </si>
+  <si>
+    <t>https://ekaro.in/enkr20221016s16829881</t>
   </si>
 </sst>
 </file>
@@ -479,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,6 +823,314 @@
         <v>44</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
